--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121619.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4127,12 +4127,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4203,12 +4203,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4735,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6255,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6445,12 +6445,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8197,12 +8197,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8957,12 +8957,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9375,12 +9375,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9641,12 +9641,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9869,12 +9869,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9907,12 +9907,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10059,12 +10059,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10173,12 +10173,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10287,12 +10287,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11577,12 +11577,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11729,12 +11729,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12565,12 +12565,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12831,12 +12831,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12907,12 +12907,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13021,12 +13021,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13059,12 +13059,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13177,12 +13177,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13253,12 +13253,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13903,12 +13903,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14207,12 +14207,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14245,12 +14245,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14321,12 +14321,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14511,12 +14511,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14587,12 +14587,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14701,12 +14701,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14777,12 +14777,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14853,12 +14853,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15119,12 +15119,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15271,12 +15271,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15309,12 +15309,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15385,12 +15385,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15879,12 +15879,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16031,12 +16031,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16069,12 +16069,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16715,12 +16715,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16867,12 +16867,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17209,12 +17209,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17627,12 +17627,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17665,12 +17665,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17779,12 +17779,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17855,12 +17855,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17935,12 +17935,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
